--- a/flyers/Mechelen_2024-25.xlsx
+++ b/flyers/Mechelen_2024-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joachim/Sites/EddyPresent18/flyers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0CABB8-A855-AD4F-BEAB-998D3709A447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CADFD-43BD-1F4C-82A9-4601448AE69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="500" windowWidth="22580" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="30">
   <si>
     <t>Dag</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">         Pinkstermaandag</t>
-  </si>
-  <si>
-    <t>Weekend</t>
   </si>
 </sst>
 </file>
@@ -729,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N135" sqref="A1:N135"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1775,12 +1772,8 @@
       <c r="L37" s="6">
         <v>1</v>
       </c>
-      <c r="M37" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="34" t="s">
-        <v>14</v>
-      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -2648,12 +2641,8 @@
       <c r="G66" s="6">
         <v>30</v>
       </c>
-      <c r="H66" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>14</v>
-      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="7"/>
       <c r="K66" s="5" t="s">
         <v>4</v>
@@ -3416,12 +3405,8 @@
       <c r="L92" s="13">
         <v>22</v>
       </c>
-      <c r="M92" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="N92" s="34" t="s">
-        <v>14</v>
-      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
     </row>
     <row r="93" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -3452,12 +3437,8 @@
       <c r="L93" s="13">
         <v>23</v>
       </c>
-      <c r="M93" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="N93" s="34" t="s">
-        <v>14</v>
-      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
     </row>
     <row r="94" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">

--- a/flyers/Mechelen_2024-25.xlsx
+++ b/flyers/Mechelen_2024-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joachim/Sites/EddyPresent18/flyers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddypresent/Desktop/Kalenders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CADFD-43BD-1F4C-82A9-4601448AE69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012248E9-9E57-904A-A170-207D25CB37B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="500" windowWidth="22580" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="500" windowWidth="22580" windowHeight="16960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="30">
   <si>
     <t>Dag</t>
   </si>
@@ -125,10 +125,10 @@
     <t>Zomeruur</t>
   </si>
   <si>
-    <t>Winteruur</t>
+    <t xml:space="preserve">         Pinkstermaandag</t>
   </si>
   <si>
-    <t xml:space="preserve">         Pinkstermaandag</t>
+    <t>TaiJi WE</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,6 +449,9 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2512,8 +2521,12 @@
       <c r="B62" s="6">
         <v>26</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="E62" s="7"/>
       <c r="F62" s="5" t="s">
         <v>6</v>
@@ -2542,10 +2555,12 @@
       <c r="B63" s="6">
         <v>27</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="8"/>
+      <c r="C63" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
         <v>2</v>
@@ -2774,8 +2789,12 @@
       <c r="L71" s="13">
         <v>1</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
+      <c r="M71" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="48" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
@@ -2802,8 +2821,12 @@
       <c r="L72" s="13">
         <v>2</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="8"/>
+      <c r="M72" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="48" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -3874,8 +3897,12 @@
       <c r="B109" s="6">
         <v>5</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="15"/>
+      <c r="C109" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="E109" s="12"/>
       <c r="F109" s="17" t="s">
         <v>4</v>
@@ -3906,8 +3933,12 @@
       <c r="B110" s="6">
         <v>6</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="C110" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="E110" s="12"/>
       <c r="F110" s="17" t="s">
         <v>6</v>
@@ -4015,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="M113" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N113" s="40"/>
     </row>
@@ -4694,6 +4725,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="2"/>
 </worksheet>
 </file>